--- a/results/Kitchen LittleTexture Pan PET.xlsx
+++ b/results/Kitchen LittleTexture Pan PET.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12915" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chart1" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="20">
   <si>
     <t>Apartment.Texture.rotate</t>
   </si>
@@ -68,6 +68,21 @@
   <si>
     <t>PCA</t>
   </si>
+  <si>
+    <t>avg</t>
+  </si>
+  <si>
+    <t>avg*1000</t>
+  </si>
+  <si>
+    <t>min er</t>
+  </si>
+  <si>
+    <t>FM-2D</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
 </sst>
 </file>
 
@@ -90,7 +105,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,13 +113,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -552,11 +588,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="510222200"/>
-        <c:axId val="510221024"/>
+        <c:axId val="217536648"/>
+        <c:axId val="219445112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510222200"/>
+        <c:axId val="217536648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,7 +630,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510221024"/>
+        <c:crossAx val="219445112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -602,7 +638,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510221024"/>
+        <c:axId val="219445112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -648,7 +684,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510222200"/>
+        <c:crossAx val="217536648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1549,11 +1585,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="510229256"/>
-        <c:axId val="510228472"/>
+        <c:axId val="219445504"/>
+        <c:axId val="219450208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="510229256"/>
+        <c:axId val="219445504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1562,7 +1598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="510228472"/>
+        <c:crossAx val="219450208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1570,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510228472"/>
+        <c:axId val="219450208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30"/>
@@ -1583,7 +1619,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="510229256"/>
+        <c:crossAx val="219445504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2030,11 +2066,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="510222592"/>
-        <c:axId val="510229648"/>
+        <c:axId val="219448640"/>
+        <c:axId val="219443544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="510222592"/>
+        <c:axId val="219448640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2072,7 +2108,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510229648"/>
+        <c:crossAx val="219443544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2080,7 +2116,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="510229648"/>
+        <c:axId val="219443544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2126,7 +2162,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510222592"/>
+        <c:crossAx val="219448640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2181,7 +2217,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="75" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2220,16 +2256,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>204786</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>547686</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2249,7 +2285,7 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="6858000" y="4933949"/>
+    <xdr:pos x="6372225" y="66674"/>
     <xdr:ext cx="6191249" cy="4676775"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2560,10 +2596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,7 +3031,7 @@
         <v>1.3765000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3025,7 +3061,7 @@
         <v>1.55585</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3055,7 +3091,7 @@
         <v>0.73885299999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3085,7 +3121,7 @@
         <v>1.0786500000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3115,7 +3151,7 @@
         <v>0.62301200000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3145,7 +3181,7 @@
         <v>0.79331700000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3175,7 +3211,7 @@
         <v>0.80015000000000003</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3205,7 +3241,7 @@
         <v>0.93226200000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3235,7 +3271,7 @@
         <v>1.94635</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3265,7 +3301,7 @@
         <v>0.65653600000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3295,7 +3331,7 @@
         <v>3.3639199999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3325,7 +3361,7 @@
         <v>0.44043700000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3355,7 +3391,7 @@
         <v>0.70433500000000004</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3386,8 +3422,26 @@
       <c r="J30" t="s">
         <v>10</v>
       </c>
+      <c r="L30" t="s">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N30" t="s">
+        <v>12</v>
+      </c>
+      <c r="O30" t="s">
+        <v>13</v>
+      </c>
+      <c r="P30" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -3427,8 +3481,32 @@
         <f>MIN(G31:I31)</f>
         <v>0.91623943520387252</v>
       </c>
+      <c r="L31">
+        <f>MIN(C31:J31)</f>
+        <v>0.8091493260955297</v>
+      </c>
+      <c r="M31">
+        <f>IF($L31=C31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <f t="shared" ref="N31:Q46" si="2">IF($L31=D31,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <f>IF($L31=J31,1,0)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>A31+1</f>
         <v>2</v>
@@ -3438,41 +3516,65 @@
         <v>1.55304</v>
       </c>
       <c r="C32">
-        <f>C6/$B32</f>
+        <f t="shared" ref="C32:I33" si="3">C6/$B32</f>
         <v>0.69143099984546441</v>
       </c>
       <c r="D32">
-        <f>D6/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.83348142996960795</v>
       </c>
       <c r="E32">
-        <f>E6/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.72662648740534685</v>
       </c>
       <c r="F32">
-        <f>F6/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.9849585329418431</v>
       </c>
       <c r="G32">
-        <f>G6/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.65520527481584512</v>
       </c>
       <c r="H32">
-        <f>H6/$B32</f>
+        <f t="shared" si="3"/>
         <v>1.3681553598104363</v>
       </c>
       <c r="I32">
-        <f>I6/$B32</f>
+        <f t="shared" si="3"/>
         <v>0.77563359604388815</v>
       </c>
       <c r="J32">
-        <f t="shared" ref="J32:J48" si="2">MIN(G32:I32)</f>
+        <f t="shared" ref="J32:J48" si="4">MIN(G32:I32)</f>
         <v>0.65520527481584512</v>
       </c>
+      <c r="L32">
+        <f t="shared" ref="L32:L48" si="5">MIN(C32:J32)</f>
+        <v>0.65520527481584512</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32:P48" si="6">IF($L32=C32,1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" ref="Q32:Q48" si="7">IF($L32=J32,1,0)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33">
-        <f t="shared" ref="A33:A48" si="3">A32+1</f>
+        <f t="shared" ref="A33:A48" si="8">A32+1</f>
         <v>3</v>
       </c>
       <c r="B33">
@@ -3480,666 +3582,1165 @@
         <v>0.26632</v>
       </c>
       <c r="C33">
-        <f>C7/$B33</f>
+        <f t="shared" si="3"/>
         <v>1.4883260738960649</v>
       </c>
       <c r="D33">
-        <f>D7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.86795584259537395</v>
       </c>
       <c r="E33">
-        <f>E7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.87391859417242412</v>
       </c>
       <c r="F33">
-        <f>F7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.73119555422048654</v>
       </c>
       <c r="G33">
-        <f>G7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.87796260138179638</v>
       </c>
       <c r="H33">
-        <f>H7/$B33</f>
+        <f t="shared" si="3"/>
         <v>1.4158080504656052</v>
       </c>
       <c r="I33">
-        <f>I7/$B33</f>
+        <f t="shared" si="3"/>
         <v>0.99806623610693912</v>
       </c>
       <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0.87796260138179638</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="5"/>
+        <v>0.73119555422048654</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N33">
         <f t="shared" si="2"/>
-        <v>0.87796260138179638</v>
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>A33+1</f>
+        <v>4</v>
       </c>
       <c r="B34">
         <f>B10</f>
         <v>1.5606800000000001</v>
       </c>
       <c r="C34">
-        <f>C10/$B34</f>
+        <f t="shared" ref="C34:I36" si="9">C10/$B34</f>
         <v>1.7886434118461183</v>
       </c>
       <c r="D34">
-        <f>D10/$B34</f>
+        <f t="shared" si="9"/>
         <v>0.95901145654458309</v>
       </c>
       <c r="E34">
-        <f>E10/$B34</f>
+        <f t="shared" si="9"/>
         <v>1.3340082528128765</v>
       </c>
       <c r="F34">
-        <f>F10/$B34</f>
+        <f t="shared" si="9"/>
         <v>0.44311325832329496</v>
       </c>
       <c r="G34">
-        <f>G10/$B34</f>
+        <f t="shared" si="9"/>
         <v>0.80668682881820741</v>
       </c>
       <c r="H34">
-        <f>H10/$B34</f>
+        <f t="shared" si="9"/>
         <v>0.90495809518927639</v>
       </c>
       <c r="I34">
-        <f>I10/$B34</f>
+        <f t="shared" si="9"/>
         <v>1.2996706563805518</v>
       </c>
       <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0.80668682881820741</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="5"/>
+        <v>0.44311325832329496</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N34">
         <f t="shared" si="2"/>
-        <v>0.80668682881820741</v>
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ref="A35:A48" si="10">A34+1</f>
+        <v>5</v>
       </c>
       <c r="B35">
         <f>B11</f>
         <v>0.41266700000000001</v>
       </c>
       <c r="C35">
-        <f>C11/$B35</f>
+        <f t="shared" si="9"/>
         <v>3.5298436754089857</v>
       </c>
       <c r="D35">
-        <f>D11/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.87383289674240971</v>
       </c>
       <c r="E35">
-        <f>E11/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.65563759641551178</v>
       </c>
       <c r="F35">
-        <f>F11/$B35</f>
+        <f t="shared" si="9"/>
         <v>1.4149447375244446</v>
       </c>
       <c r="G35">
-        <f>G11/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.88369072399779969</v>
       </c>
       <c r="H35">
-        <f>H11/$B35</f>
+        <f t="shared" si="9"/>
         <v>0.93836677030147797</v>
       </c>
       <c r="I35">
-        <f>I11/$B35</f>
+        <f t="shared" si="9"/>
         <v>1.1153617808063159</v>
       </c>
       <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0.88369072399779969</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="5"/>
+        <v>0.65563759641551178</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
         <f t="shared" si="2"/>
-        <v>0.88369072399779969</v>
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="10"/>
+        <v>6</v>
       </c>
       <c r="B36">
         <f>B12</f>
         <v>0.63229199999999997</v>
       </c>
       <c r="C36">
-        <f>C12/$B36</f>
+        <f t="shared" si="9"/>
         <v>0.60823638445528339</v>
       </c>
       <c r="D36">
-        <f>D12/$B36</f>
+        <f t="shared" si="9"/>
         <v>1.0853118495884813</v>
       </c>
       <c r="E36">
-        <f>E12/$B36</f>
+        <f t="shared" si="9"/>
         <v>0.94535278004466294</v>
       </c>
       <c r="F36">
-        <f>F12/$B36</f>
+        <f t="shared" si="9"/>
         <v>0.93489242312096321</v>
       </c>
       <c r="G36">
-        <f>G12/$B36</f>
+        <f t="shared" si="9"/>
         <v>0.80947094064134928</v>
       </c>
       <c r="H36">
-        <f>H12/$B36</f>
+        <f t="shared" si="9"/>
         <v>1.0143825953831458</v>
       </c>
       <c r="I36">
-        <f>I12/$B36</f>
+        <f t="shared" si="9"/>
         <v>1.1556496049293681</v>
       </c>
       <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0.80947094064134928</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="5"/>
+        <v>0.60823638445528339</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N36">
         <f t="shared" si="2"/>
-        <v>0.80947094064134928</v>
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="10"/>
+        <v>7</v>
       </c>
       <c r="B37">
-        <f>B14</f>
+        <f t="shared" ref="B37:B46" si="11">B14</f>
         <v>0.69920700000000002</v>
       </c>
       <c r="C37">
-        <f>C14/$B37</f>
+        <f t="shared" ref="C37:I46" si="12">C14/$B37</f>
         <v>0.80381632334916553</v>
       </c>
       <c r="D37">
-        <f>D14/$B37</f>
+        <f t="shared" si="12"/>
         <v>0.6647173154731002</v>
       </c>
       <c r="E37">
-        <f>E14/$B37</f>
+        <f t="shared" si="12"/>
         <v>1.3726378597468274</v>
       </c>
       <c r="F37">
-        <f>F14/$B37</f>
+        <f t="shared" si="12"/>
         <v>0.69152625760325626</v>
       </c>
       <c r="G37">
-        <f>G14/$B37</f>
+        <f t="shared" si="12"/>
         <v>0.4825008902942905</v>
       </c>
       <c r="H37">
-        <f>H14/$B37</f>
+        <f t="shared" si="12"/>
         <v>0.47627097554801362</v>
       </c>
       <c r="I37">
-        <f>I14/$B37</f>
+        <f t="shared" si="12"/>
         <v>0.8310428814356835</v>
       </c>
       <c r="J37">
+        <f t="shared" si="4"/>
+        <v>0.47627097554801362</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="5"/>
+        <v>0.47627097554801362</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
         <f t="shared" si="2"/>
-        <v>0.47627097554801362</v>
+        <v>0</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="10"/>
+        <v>8</v>
       </c>
       <c r="B38">
-        <f>B15</f>
+        <f t="shared" si="11"/>
         <v>4.9684200000000001</v>
       </c>
       <c r="C38">
-        <f>C15/$B38</f>
+        <f t="shared" si="12"/>
         <v>0.22092536460283149</v>
       </c>
       <c r="D38">
-        <f>D15/$B38</f>
+        <f t="shared" si="12"/>
         <v>0.63829949963972443</v>
       </c>
       <c r="E38">
-        <f>E15/$B38</f>
+        <f t="shared" si="12"/>
         <v>0.48716090829680259</v>
       </c>
       <c r="F38">
-        <f>F15/$B38</f>
+        <f t="shared" si="12"/>
         <v>0.56684016246613611</v>
       </c>
       <c r="G38">
-        <f>G15/$B38</f>
+        <f t="shared" si="12"/>
         <v>0.25186477793745299</v>
       </c>
       <c r="H38">
-        <f>H15/$B38</f>
+        <f t="shared" si="12"/>
         <v>0.50115529685493576</v>
       </c>
       <c r="I38">
-        <f>I15/$B38</f>
+        <f t="shared" si="12"/>
         <v>1.2196915719685535</v>
       </c>
       <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0.25186477793745299</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="5"/>
+        <v>0.22092536460283149</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N38">
         <f t="shared" si="2"/>
-        <v>0.25186477793745299</v>
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="10"/>
+        <v>9</v>
       </c>
       <c r="B39">
-        <f>B16</f>
+        <f t="shared" si="11"/>
         <v>1.83907</v>
       </c>
       <c r="C39">
-        <f>C16/$B39</f>
+        <f t="shared" si="12"/>
         <v>1.2529702512683041</v>
       </c>
       <c r="D39">
-        <f>D16/$B39</f>
+        <f t="shared" si="12"/>
         <v>1.0513574795956651</v>
       </c>
       <c r="E39">
-        <f>E16/$B39</f>
+        <f t="shared" si="12"/>
         <v>0.49697782031135307</v>
       </c>
       <c r="F39">
-        <f>F16/$B39</f>
+        <f t="shared" si="12"/>
         <v>1.1187448003610518</v>
       </c>
       <c r="G39">
-        <f>G16/$B39</f>
+        <f t="shared" si="12"/>
         <v>0.86781906072090786</v>
       </c>
       <c r="H39">
-        <f>H16/$B39</f>
+        <f t="shared" si="12"/>
         <v>330.53880493945309</v>
       </c>
       <c r="I39">
-        <f>I16/$B39</f>
+        <f t="shared" si="12"/>
         <v>0.74847613195800056</v>
       </c>
       <c r="J39">
+        <f t="shared" si="4"/>
+        <v>0.74847613195800056</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="5"/>
+        <v>0.49697782031135307</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
         <f t="shared" si="2"/>
-        <v>0.74847613195800056</v>
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="10"/>
+        <v>10</v>
       </c>
       <c r="B40">
-        <f>B17</f>
+        <f t="shared" si="11"/>
         <v>0.990618</v>
       </c>
       <c r="C40">
-        <f>C17/$B40</f>
+        <f t="shared" si="12"/>
         <v>13.58515593296306</v>
       </c>
       <c r="D40">
-        <f>D17/$B40</f>
+        <f t="shared" si="12"/>
         <v>1.0005955878047845</v>
       </c>
       <c r="E40">
-        <f>E17/$B40</f>
+        <f t="shared" si="12"/>
         <v>0.63646531760981528</v>
       </c>
       <c r="F40">
-        <f>F17/$B40</f>
+        <f t="shared" si="12"/>
         <v>1.0233712692480856</v>
       </c>
       <c r="G40">
-        <f>G17/$B40</f>
+        <f t="shared" si="12"/>
         <v>0.56818571841012377</v>
       </c>
       <c r="H40">
-        <f>H17/$B40</f>
+        <f t="shared" si="12"/>
         <v>1.8068115055450233</v>
       </c>
       <c r="I40">
-        <f>I17/$B40</f>
+        <f t="shared" si="12"/>
         <v>1.5705852306338064</v>
       </c>
       <c r="J40">
+        <f t="shared" si="4"/>
+        <v>0.56818571841012377</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="5"/>
+        <v>0.56818571841012377</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N40">
         <f t="shared" si="2"/>
-        <v>0.56818571841012377</v>
+        <v>0</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="10"/>
+        <v>11</v>
       </c>
       <c r="B41">
-        <f>B18</f>
+        <f t="shared" si="11"/>
         <v>1.0512999999999999</v>
       </c>
       <c r="C41">
-        <f>C18/$B41</f>
+        <f t="shared" si="12"/>
         <v>1.5554361267002759</v>
       </c>
       <c r="D41">
-        <f>D18/$B41</f>
+        <f t="shared" si="12"/>
         <v>1.2573670693427188</v>
       </c>
       <c r="E41">
-        <f>E18/$B41</f>
+        <f t="shared" si="12"/>
         <v>0.49913535622562549</v>
       </c>
       <c r="F41">
-        <f>F18/$B41</f>
+        <f t="shared" si="12"/>
         <v>1.049766955198326</v>
       </c>
       <c r="G41">
-        <f>G18/$B41</f>
+        <f t="shared" si="12"/>
         <v>0.44086749738419106</v>
       </c>
       <c r="H41">
-        <f>H18/$B41</f>
+        <f t="shared" si="12"/>
         <v>1.0581565680585943</v>
       </c>
       <c r="I41">
-        <f>I18/$B41</f>
+        <f t="shared" si="12"/>
         <v>0.70279939122990587</v>
       </c>
       <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.44086749738419106</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="5"/>
+        <v>0.44086749738419106</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
         <f t="shared" si="2"/>
-        <v>0.44086749738419106</v>
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="B42">
-        <f>B19</f>
+        <f t="shared" si="11"/>
         <v>1.52159</v>
       </c>
       <c r="C42">
-        <f>C19/$B42</f>
+        <f t="shared" si="12"/>
         <v>0.51537076347767796</v>
       </c>
       <c r="D42">
-        <f>D19/$B42</f>
+        <f t="shared" si="12"/>
         <v>0.94846180639988442</v>
       </c>
       <c r="E42">
-        <f>E19/$B42</f>
+        <f t="shared" si="12"/>
         <v>0.64904869248614938</v>
       </c>
       <c r="F42">
-        <f>F19/$B42</f>
+        <f t="shared" si="12"/>
         <v>1.1294106822468601</v>
       </c>
       <c r="G42">
-        <f>G19/$B42</f>
+        <f t="shared" si="12"/>
         <v>0.49326822600043374</v>
       </c>
       <c r="H42">
-        <f>H19/$B42</f>
+        <f t="shared" si="12"/>
         <v>653.40597664285383</v>
       </c>
       <c r="I42">
-        <f>I19/$B42</f>
+        <f t="shared" si="12"/>
         <v>0.70889661472538601</v>
       </c>
       <c r="J42">
+        <f t="shared" si="4"/>
+        <v>0.49326822600043374</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="5"/>
+        <v>0.49326822600043374</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="2"/>
-        <v>0.49326822600043374</v>
+        <v>0</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="10"/>
+        <v>13</v>
       </c>
       <c r="B43">
-        <f>B20</f>
+        <f t="shared" si="11"/>
         <v>1.64388</v>
       </c>
       <c r="C43">
-        <f>C20/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.48461262379249098</v>
       </c>
       <c r="D43">
-        <f>D20/$B43</f>
+        <f t="shared" si="12"/>
         <v>1.0611054334866292</v>
       </c>
       <c r="E43">
-        <f>E20/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.59122137868944202</v>
       </c>
       <c r="F43">
-        <f>F20/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.97087986957685468</v>
       </c>
       <c r="G43">
-        <f>G20/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.50757354551427114</v>
       </c>
       <c r="H43">
-        <f>H20/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.6128671192544467</v>
       </c>
       <c r="I43">
-        <f>I20/$B43</f>
+        <f t="shared" si="12"/>
         <v>0.37898873397084948</v>
       </c>
       <c r="J43">
+        <f t="shared" si="4"/>
+        <v>0.37898873397084948</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="5"/>
+        <v>0.37898873397084948</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="2"/>
-        <v>0.37898873397084948</v>
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="10"/>
+        <v>14</v>
       </c>
       <c r="B44">
-        <f>B21</f>
+        <f t="shared" si="11"/>
         <v>1.04539</v>
       </c>
       <c r="C44">
-        <f>C21/$B44</f>
+        <f t="shared" si="12"/>
         <v>1.2647433015429648</v>
       </c>
       <c r="D44">
-        <f>D21/$B44</f>
+        <f t="shared" si="12"/>
         <v>1.030065334468476</v>
       </c>
       <c r="E44">
-        <f>E21/$B44</f>
+        <f t="shared" si="12"/>
         <v>1.0936205626608251</v>
       </c>
       <c r="F44">
-        <f>F21/$B44</f>
+        <f t="shared" si="12"/>
         <v>1.2033595117611608</v>
       </c>
       <c r="G44">
-        <f>G21/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.51917753183022597</v>
       </c>
       <c r="H44">
-        <f>H21/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.86402873568715977</v>
       </c>
       <c r="I44">
-        <f>I21/$B44</f>
+        <f t="shared" si="12"/>
         <v>0.75887180860731407</v>
       </c>
       <c r="J44">
+        <f t="shared" si="4"/>
+        <v>0.51917753183022597</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="5"/>
+        <v>0.51917753183022597</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
         <f t="shared" si="2"/>
-        <v>0.51917753183022597</v>
+        <v>0</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="10"/>
+        <v>15</v>
       </c>
       <c r="B45">
-        <f>B22</f>
+        <f t="shared" si="11"/>
         <v>1.00176</v>
       </c>
       <c r="C45">
-        <f>C22/$B45</f>
+        <f t="shared" si="12"/>
         <v>0.57267908481073304</v>
       </c>
       <c r="D45">
-        <f>D22/$B45</f>
+        <f t="shared" si="12"/>
         <v>0.98466798434754832</v>
       </c>
       <c r="E45">
-        <f>E22/$B45</f>
+        <f t="shared" si="12"/>
         <v>0.38499640632486826</v>
       </c>
       <c r="F45">
-        <f>F22/$B45</f>
+        <f t="shared" si="12"/>
         <v>1.0864877815045519</v>
       </c>
       <c r="G45">
-        <f>G22/$B45</f>
+        <f t="shared" si="12"/>
         <v>0.50424652611403931</v>
       </c>
       <c r="H45">
-        <f>H22/$B45</f>
+        <f t="shared" si="12"/>
         <v>1.2729296438268647</v>
       </c>
       <c r="I45">
-        <f>I22/$B45</f>
+        <f t="shared" si="12"/>
         <v>0.79874421019006547</v>
       </c>
       <c r="J45">
+        <f t="shared" si="4"/>
+        <v>0.50424652611403931</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>0.38499640632486826</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
         <f t="shared" si="2"/>
-        <v>0.50424652611403931</v>
+        <v>0</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="10"/>
+        <v>16</v>
       </c>
       <c r="B46">
-        <f>B23</f>
+        <f t="shared" si="11"/>
         <v>1.1696800000000001</v>
       </c>
       <c r="C46">
-        <f>C23/$B46</f>
+        <f t="shared" si="12"/>
         <v>5.338938855071472</v>
       </c>
       <c r="D46">
-        <f>D23/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.81258720333766488</v>
       </c>
       <c r="E46">
-        <f>E23/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.7459578688188222</v>
       </c>
       <c r="F46">
-        <f>F23/$B46</f>
+        <f t="shared" si="12"/>
         <v>1.812837699199781</v>
       </c>
       <c r="G46">
-        <f>G23/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.6435905546816223</v>
       </c>
       <c r="H46">
-        <f>H23/$B46</f>
+        <f t="shared" si="12"/>
         <v>3.2068172491621638</v>
       </c>
       <c r="I46">
-        <f>I23/$B46</f>
+        <f t="shared" si="12"/>
         <v>0.79702311743382803</v>
       </c>
       <c r="J46">
+        <f t="shared" si="4"/>
+        <v>0.6435905546816223</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="5"/>
+        <v>0.6435905546816223</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
         <f t="shared" si="2"/>
-        <v>0.6435905546816223</v>
+        <v>0</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" t="e">
-        <f>#REF!+1</f>
-        <v>#REF!</v>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="10"/>
+        <v>17</v>
       </c>
       <c r="B47">
         <f>B25</f>
         <v>0.49312299999999998</v>
       </c>
       <c r="C47">
-        <f>C25/$B47</f>
+        <f t="shared" ref="C47:I48" si="13">C25/$B47</f>
         <v>26.629461615053447</v>
       </c>
       <c r="D47">
-        <f>D25/$B47</f>
+        <f t="shared" si="13"/>
         <v>1.1836519489052428</v>
       </c>
       <c r="E47">
-        <f>E25/$B47</f>
+        <f t="shared" si="13"/>
         <v>0.78014410197861395</v>
       </c>
       <c r="F47">
-        <f>F25/$B47</f>
+        <f t="shared" si="13"/>
         <v>1.4831553182471715</v>
       </c>
       <c r="G47">
-        <f>G25/$B47</f>
+        <f t="shared" si="13"/>
         <v>0.88950626922694753</v>
       </c>
       <c r="H47">
-        <f>H25/$B47</f>
+        <f t="shared" si="13"/>
         <v>11.117145215291115</v>
       </c>
       <c r="I47">
-        <f>I25/$B47</f>
+        <f t="shared" si="13"/>
         <v>1.3313838535213325</v>
       </c>
       <c r="J47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0.88950626922694753</v>
       </c>
+      <c r="L47">
+        <f t="shared" si="5"/>
+        <v>0.78014410197861395</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" t="e">
-        <f t="shared" si="3"/>
-        <v>#REF!</v>
-      </c>
-      <c r="B48">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="B48" s="2">
         <f>B26</f>
         <v>1.69258</v>
       </c>
-      <c r="C48">
-        <f>C26/$B48</f>
+      <c r="C48" s="2">
+        <f t="shared" si="13"/>
         <v>0.81411809190702955</v>
       </c>
-      <c r="D48">
-        <f>D26/$B48</f>
+      <c r="D48" s="2">
+        <f t="shared" si="13"/>
         <v>1.3345484408417918</v>
       </c>
-      <c r="E48">
-        <f>E26/$B48</f>
+      <c r="E48" s="2">
+        <f t="shared" si="13"/>
         <v>0.53068215387160433</v>
       </c>
-      <c r="F48">
-        <f>F26/$B48</f>
+      <c r="F48" s="2">
+        <f t="shared" si="13"/>
         <v>1.0679495208498269</v>
       </c>
-      <c r="G48">
-        <f>G26/$B48</f>
+      <c r="G48" s="2">
+        <f t="shared" si="13"/>
         <v>0.62914012927010832</v>
       </c>
-      <c r="H48">
-        <f>H26/$B48</f>
+      <c r="H48" s="2">
+        <f t="shared" si="13"/>
         <v>110.18208888206171</v>
       </c>
-      <c r="I48">
-        <f>I26/$B48</f>
+      <c r="I48" s="2">
+        <f t="shared" si="13"/>
         <v>1.9874511101395502</v>
       </c>
-      <c r="J48">
-        <f t="shared" si="2"/>
+      <c r="J48" s="2">
+        <f t="shared" si="4"/>
         <v>0.62914012927010832</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>0.53068215387160433</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R48" s="3"/>
+      <c r="S48" s="3"/>
+      <c r="T48" s="3"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49">
+        <f>AVERAGE(B31:B48)</f>
+        <v>1.3241570555555555</v>
+      </c>
+      <c r="C49">
+        <f t="shared" ref="C49:J49" si="14">AVERAGE(C31:C48)</f>
+        <v>3.4506434449803045</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="14"/>
+        <v>0.97327315133388204</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="14"/>
+        <v>0.77289816248013732</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="14"/>
+        <v>1.0290324255827568</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="14"/>
+        <v>0.65261091845797148</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="14"/>
+        <v>62.357723608721408</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="14"/>
+        <v>1.0237005669813224</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="14"/>
+        <v>0.63849104873282658</v>
+      </c>
+      <c r="L49" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M49" s="4">
+        <f>AVERAGE(M31:M48)*100</f>
+        <v>11.111111111111111</v>
+      </c>
+      <c r="N49" s="4">
+        <f t="shared" ref="N49:Q49" si="15">AVERAGE(N31:N48)*100</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="4">
+        <f t="shared" si="15"/>
+        <v>27.777777777777779</v>
+      </c>
+      <c r="P49" s="4">
+        <f t="shared" si="15"/>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="Q49" s="4">
+        <f t="shared" si="15"/>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="R49" s="4">
+        <f>SUM(M49:Q49)</f>
+        <v>100</v>
+      </c>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50">
+        <f>B49*1000</f>
+        <v>1324.1570555555554</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:J50" si="16">C49*1000</f>
+        <v>3450.6434449803046</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="16"/>
+        <v>973.27315133388208</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="16"/>
+        <v>772.89816248013733</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="16"/>
+        <v>1029.0324255827568</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="16"/>
+        <v>652.61091845797148</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="16"/>
+        <v>62357.723608721404</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="16"/>
+        <v>1023.7005669813224</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="16"/>
+        <v>638.49104873282658</v>
       </c>
     </row>
   </sheetData>
